--- a/src/ExecucoesGerais/ParametrosLivres.xlsx
+++ b/src/ExecucoesGerais/ParametrosLivres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7905"/>
+    <workbookView windowWidth="19665" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="28">
   <si>
     <t>ALGORITMOS</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>ROSENBROCK</t>
+  </si>
+  <si>
+    <t>SCHWEFEL</t>
+  </si>
+  <si>
+    <t>ACKLEY</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MESMO</t>
   </si>
 </sst>
 </file>
@@ -93,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -115,8 +127,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,27 +142,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,72 +181,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,8 +202,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,25 +280,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,67 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,92 +464,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -477,11 +489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="true"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="true"/>
       </top>
       <bottom/>
@@ -490,14 +502,14 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="true"/>
       </left>
       <right/>
@@ -517,17 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="true"/>
       </left>
@@ -535,9 +536,7 @@
       <top style="thin">
         <color auto="true"/>
       </top>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -546,6 +545,17 @@
       <top style="thin">
         <color auto="true"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
       <bottom style="thin">
         <color auto="true"/>
       </bottom>
@@ -553,6 +563,82 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
       <right style="thin">
         <color auto="true"/>
       </right>
@@ -563,15 +649,166 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
       <right style="thin">
         <color auto="true"/>
       </right>
       <top style="thin">
         <color auto="true"/>
       </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,15 +818,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +837,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -623,207 +886,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="33" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="29" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,9 +1055,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,19 +1064,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,10 +1446,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1384,41 +1642,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:14">
+    <row r="16" spans="3:22">
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="3:14">
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="3:22">
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="J17" s="20"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="20"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
@@ -1428,24 +1706,36 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="8" t="s">
+      <c r="J18" s="21"/>
+      <c r="K18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="21"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1454,10 +1744,10 @@
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1466,10 +1756,10 @@
       <c r="I19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -1478,243 +1768,849 @@
       <c r="M19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
+      <c r="O19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="C20" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="C21" s="12">
+        <v>2.75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="C22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="C23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+      <c r="C24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="1" t="s">
+      <c r="C25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="C26" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="12">
+        <v>8</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="12">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="C27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="C28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+      <c r="C29" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>8</v>
+      </c>
+      <c r="J29" s="22">
+        <v>1</v>
+      </c>
+      <c r="K29" s="12">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1">
+        <v>8</v>
+      </c>
+      <c r="N29" s="22">
+        <v>1</v>
+      </c>
+      <c r="O29" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>16</v>
+      </c>
+      <c r="R29" s="22">
+        <v>2</v>
+      </c>
+      <c r="S29" s="12">
+        <v>6</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>8</v>
+      </c>
+      <c r="V29" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="C30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:22">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="C31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:V18"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="C16:F17"/>
     <mergeCell ref="G16:J17"/>
     <mergeCell ref="K16:N17"/>
+    <mergeCell ref="O16:R17"/>
+    <mergeCell ref="S16:V17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
